--- a/data/pca/factorExposure/factorExposure_2012-05-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-23.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01760695716211067</v>
+        <v>0.02183956023286964</v>
       </c>
       <c r="C2">
-        <v>-0.03270872892937463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02567620214126029</v>
+      </c>
+      <c r="D2">
+        <v>0.002835837355733999</v>
+      </c>
+      <c r="E2">
+        <v>0.02858315408060535</v>
+      </c>
+      <c r="F2">
+        <v>-0.007729030463039703</v>
+      </c>
+      <c r="G2">
+        <v>-0.01193032953870775</v>
+      </c>
+      <c r="H2">
+        <v>-0.05198035735521104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06992910975313291</v>
+        <v>0.0789606565320911</v>
       </c>
       <c r="C4">
-        <v>-0.05978602986100826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03999039794092624</v>
+      </c>
+      <c r="D4">
+        <v>-0.07029803012507835</v>
+      </c>
+      <c r="E4">
+        <v>0.001312508637676516</v>
+      </c>
+      <c r="F4">
+        <v>-0.03399705819104654</v>
+      </c>
+      <c r="G4">
+        <v>-0.0007335947437945029</v>
+      </c>
+      <c r="H4">
+        <v>0.02279650081031046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1001180724780413</v>
+        <v>0.1156928926017899</v>
       </c>
       <c r="C6">
-        <v>-0.06496179298187495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04145485453802113</v>
+      </c>
+      <c r="D6">
+        <v>-0.01420857085623604</v>
+      </c>
+      <c r="E6">
+        <v>-0.003094108142875665</v>
+      </c>
+      <c r="F6">
+        <v>-0.05234499163669282</v>
+      </c>
+      <c r="G6">
+        <v>-0.01596692444373561</v>
+      </c>
+      <c r="H6">
+        <v>-0.06871447964302208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04871905813783457</v>
+        <v>0.05900695398870755</v>
       </c>
       <c r="C7">
-        <v>-0.03521501771897033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02394046836708515</v>
+      </c>
+      <c r="D7">
+        <v>-0.0427125302158841</v>
+      </c>
+      <c r="E7">
+        <v>0.02124848560728596</v>
+      </c>
+      <c r="F7">
+        <v>-0.03452906266248002</v>
+      </c>
+      <c r="G7">
+        <v>0.04293674195738717</v>
+      </c>
+      <c r="H7">
+        <v>0.02908125892562504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03473185898947578</v>
+        <v>0.03771151170750239</v>
       </c>
       <c r="C8">
-        <v>-0.0241205595384516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01429101998449755</v>
+      </c>
+      <c r="D8">
+        <v>-0.03723122222816223</v>
+      </c>
+      <c r="E8">
+        <v>0.005874078988857186</v>
+      </c>
+      <c r="F8">
+        <v>-0.04849755053945107</v>
+      </c>
+      <c r="G8">
+        <v>-0.02292348325068835</v>
+      </c>
+      <c r="H8">
+        <v>-0.02839880991362972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06460020938357493</v>
+        <v>0.07388781523543463</v>
       </c>
       <c r="C9">
-        <v>-0.04807053800110061</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02962475399650168</v>
+      </c>
+      <c r="D9">
+        <v>-0.06790114404717101</v>
+      </c>
+      <c r="E9">
+        <v>0.02007133621285795</v>
+      </c>
+      <c r="F9">
+        <v>-0.0406062299882546</v>
+      </c>
+      <c r="G9">
+        <v>-0.0001164320169493034</v>
+      </c>
+      <c r="H9">
+        <v>0.05160685459577675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03346319793747292</v>
+        <v>0.04358388335862139</v>
       </c>
       <c r="C10">
-        <v>-0.03463699787041118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03523845619193552</v>
+      </c>
+      <c r="D10">
+        <v>0.1782407372884847</v>
+      </c>
+      <c r="E10">
+        <v>0.04894906838473875</v>
+      </c>
+      <c r="F10">
+        <v>-0.04107835205675164</v>
+      </c>
+      <c r="G10">
+        <v>0.03926829310591263</v>
+      </c>
+      <c r="H10">
+        <v>-0.02933421933133402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06749689297348943</v>
+        <v>0.07538386756567535</v>
       </c>
       <c r="C11">
-        <v>-0.05167558752515239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03091258561192295</v>
+      </c>
+      <c r="D11">
+        <v>-0.06608710225514428</v>
+      </c>
+      <c r="E11">
+        <v>-0.01037665544120741</v>
+      </c>
+      <c r="F11">
+        <v>-0.03060937537633465</v>
+      </c>
+      <c r="G11">
+        <v>0.01339742339048313</v>
+      </c>
+      <c r="H11">
+        <v>0.08960542753771127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05302971611914126</v>
+        <v>0.06416603207058168</v>
       </c>
       <c r="C12">
-        <v>-0.05243059391133346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03675328658839998</v>
+      </c>
+      <c r="D12">
+        <v>-0.05179013407470483</v>
+      </c>
+      <c r="E12">
+        <v>0.00840365610040068</v>
+      </c>
+      <c r="F12">
+        <v>-0.02772741814696775</v>
+      </c>
+      <c r="G12">
+        <v>0.007202931250709798</v>
+      </c>
+      <c r="H12">
+        <v>0.04706889803497216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05697487072882007</v>
+        <v>0.06462015502818803</v>
       </c>
       <c r="C13">
-        <v>-0.04861227373827539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03069795307924349</v>
+      </c>
+      <c r="D13">
+        <v>-0.04109466664107221</v>
+      </c>
+      <c r="E13">
+        <v>-0.00206075282852082</v>
+      </c>
+      <c r="F13">
+        <v>-0.004233533709902005</v>
+      </c>
+      <c r="G13">
+        <v>-0.003377400871878013</v>
+      </c>
+      <c r="H13">
+        <v>0.06178401271688923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03154466591325838</v>
+        <v>0.03960034038362945</v>
       </c>
       <c r="C14">
-        <v>-0.03110739053720341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02401142724166491</v>
+      </c>
+      <c r="D14">
+        <v>-0.006893125844632653</v>
+      </c>
+      <c r="E14">
+        <v>0.02023822890115254</v>
+      </c>
+      <c r="F14">
+        <v>-0.02204061903028608</v>
+      </c>
+      <c r="G14">
+        <v>-0.004689363598122625</v>
+      </c>
+      <c r="H14">
+        <v>0.05348531148666996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04012134433584151</v>
+        <v>0.04058396668286336</v>
       </c>
       <c r="C15">
-        <v>-0.01251572758452776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002431992444854107</v>
+      </c>
+      <c r="D15">
+        <v>-0.01055139304181811</v>
+      </c>
+      <c r="E15">
+        <v>0.03892236478717948</v>
+      </c>
+      <c r="F15">
+        <v>0.00117590485749274</v>
+      </c>
+      <c r="G15">
+        <v>-0.02094466031738143</v>
+      </c>
+      <c r="H15">
+        <v>0.05949286154657855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05619244391152806</v>
+        <v>0.06394032459131699</v>
       </c>
       <c r="C16">
-        <v>-0.04396170232840529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02804808775549743</v>
+      </c>
+      <c r="D16">
+        <v>-0.06169297592224532</v>
+      </c>
+      <c r="E16">
+        <v>-0.0006020770972350528</v>
+      </c>
+      <c r="F16">
+        <v>-0.02811514888472125</v>
+      </c>
+      <c r="G16">
+        <v>0.00499180048765842</v>
+      </c>
+      <c r="H16">
+        <v>0.05185967532872493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06149097117104974</v>
+        <v>0.06237291871862177</v>
       </c>
       <c r="C20">
-        <v>-0.03822698146823005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01788551316380009</v>
+      </c>
+      <c r="D20">
+        <v>-0.05471566902866873</v>
+      </c>
+      <c r="E20">
+        <v>0.01700821094920755</v>
+      </c>
+      <c r="F20">
+        <v>-0.02921348583782185</v>
+      </c>
+      <c r="G20">
+        <v>0.002891337728892334</v>
+      </c>
+      <c r="H20">
+        <v>0.04267559358584187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02408681002205546</v>
+        <v>0.02320402190355703</v>
       </c>
       <c r="C21">
-        <v>0.003616716621948138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01138093376868157</v>
+      </c>
+      <c r="D21">
+        <v>-0.03695601346865551</v>
+      </c>
+      <c r="E21">
+        <v>0.07787016730910466</v>
+      </c>
+      <c r="F21">
+        <v>0.004413645165835737</v>
+      </c>
+      <c r="G21">
+        <v>-0.007709752228137684</v>
+      </c>
+      <c r="H21">
+        <v>-0.01599265772809976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06819090910655345</v>
+        <v>0.06178998385999946</v>
       </c>
       <c r="C22">
-        <v>-0.06727025781062909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03944419721374143</v>
+      </c>
+      <c r="D22">
+        <v>-0.09908853624189734</v>
+      </c>
+      <c r="E22">
+        <v>0.6154156736606845</v>
+      </c>
+      <c r="F22">
+        <v>0.1293579614907081</v>
+      </c>
+      <c r="G22">
+        <v>0.02647408198038888</v>
+      </c>
+      <c r="H22">
+        <v>-0.1097612059602326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0693796333586548</v>
+        <v>0.06227399282029539</v>
       </c>
       <c r="C23">
-        <v>-0.06664519509569447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0383291235989351</v>
+      </c>
+      <c r="D23">
+        <v>-0.09992729948402694</v>
+      </c>
+      <c r="E23">
+        <v>0.6144553600881628</v>
+      </c>
+      <c r="F23">
+        <v>0.1286362252576889</v>
+      </c>
+      <c r="G23">
+        <v>0.02517438492906738</v>
+      </c>
+      <c r="H23">
+        <v>-0.1048775785545777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06535498028676068</v>
+        <v>0.07550583877256732</v>
       </c>
       <c r="C24">
-        <v>-0.05355102800142391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03400557833559478</v>
+      </c>
+      <c r="D24">
+        <v>-0.06440838014334617</v>
+      </c>
+      <c r="E24">
+        <v>0.007238927151839973</v>
+      </c>
+      <c r="F24">
+        <v>-0.03886705065598178</v>
+      </c>
+      <c r="G24">
+        <v>-0.001702739048526159</v>
+      </c>
+      <c r="H24">
+        <v>0.05931461459004109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0652769390897905</v>
+        <v>0.07378047255398396</v>
       </c>
       <c r="C25">
-        <v>-0.05939275926196822</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03903710900909476</v>
+      </c>
+      <c r="D25">
+        <v>-0.0617032782570911</v>
+      </c>
+      <c r="E25">
+        <v>0.01146177774221057</v>
+      </c>
+      <c r="F25">
+        <v>-0.03636859884633642</v>
+      </c>
+      <c r="G25">
+        <v>-0.01234191593370148</v>
+      </c>
+      <c r="H25">
+        <v>0.06360369251580525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03951341317900723</v>
+        <v>0.04276535726417993</v>
       </c>
       <c r="C26">
-        <v>-0.01378053714821856</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.004579799208130721</v>
+      </c>
+      <c r="D26">
+        <v>-0.02906667409567345</v>
+      </c>
+      <c r="E26">
+        <v>0.03626923336908498</v>
+      </c>
+      <c r="F26">
+        <v>-0.02783394879185785</v>
+      </c>
+      <c r="G26">
+        <v>0.01119996172969178</v>
+      </c>
+      <c r="H26">
+        <v>0.06236846725531748</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06172842557600859</v>
+        <v>0.07982829693406608</v>
       </c>
       <c r="C28">
-        <v>-0.07273657824446042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07016520125594085</v>
+      </c>
+      <c r="D28">
+        <v>0.3181721202916827</v>
+      </c>
+      <c r="E28">
+        <v>0.03621446763085632</v>
+      </c>
+      <c r="F28">
+        <v>-0.05193493286868491</v>
+      </c>
+      <c r="G28">
+        <v>-0.02310001318695347</v>
+      </c>
+      <c r="H28">
+        <v>0.004932611923678087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03733014500229875</v>
+        <v>0.04460892423847085</v>
       </c>
       <c r="C29">
-        <v>-0.02939747586660357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02163082525065921</v>
+      </c>
+      <c r="D29">
+        <v>-0.01335921636211703</v>
+      </c>
+      <c r="E29">
+        <v>0.03920473272127314</v>
+      </c>
+      <c r="F29">
+        <v>-0.01640119447237973</v>
+      </c>
+      <c r="G29">
+        <v>0.01483002528034201</v>
+      </c>
+      <c r="H29">
+        <v>0.08916601396051332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1148809832979243</v>
+        <v>0.1304973800529858</v>
       </c>
       <c r="C30">
-        <v>-0.09882164278727608</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06390796731608163</v>
+      </c>
+      <c r="D30">
+        <v>-0.09432091258906103</v>
+      </c>
+      <c r="E30">
+        <v>0.04368192953669011</v>
+      </c>
+      <c r="F30">
+        <v>-0.0151173299325095</v>
+      </c>
+      <c r="G30">
+        <v>-0.03277729421760901</v>
+      </c>
+      <c r="H30">
+        <v>-0.04143245160051133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03812748565137794</v>
+        <v>0.04411477777598381</v>
       </c>
       <c r="C31">
-        <v>-0.02259029552752298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01297925789043894</v>
+      </c>
+      <c r="D31">
+        <v>-0.02936075678048765</v>
+      </c>
+      <c r="E31">
+        <v>0.02135248236952802</v>
+      </c>
+      <c r="F31">
+        <v>-0.01431057718646272</v>
+      </c>
+      <c r="G31">
+        <v>0.02223880587017709</v>
+      </c>
+      <c r="H31">
+        <v>0.06678473647729531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03601927530579827</v>
+        <v>0.03324923031375107</v>
       </c>
       <c r="C32">
-        <v>-0.02272844324647969</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.0115467109759138</v>
+      </c>
+      <c r="D32">
+        <v>-0.01250910077731852</v>
+      </c>
+      <c r="E32">
+        <v>0.06990798206462592</v>
+      </c>
+      <c r="F32">
+        <v>0.001300556280751646</v>
+      </c>
+      <c r="G32">
+        <v>-0.03641579606131683</v>
+      </c>
+      <c r="H32">
+        <v>0.03697826720085245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07409506857879</v>
+        <v>0.08801639708461706</v>
       </c>
       <c r="C33">
-        <v>-0.04945458355432247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03119660025521351</v>
+      </c>
+      <c r="D33">
+        <v>-0.06066194992902248</v>
+      </c>
+      <c r="E33">
+        <v>0.01342999124880449</v>
+      </c>
+      <c r="F33">
+        <v>-0.007395330032782086</v>
+      </c>
+      <c r="G33">
+        <v>0.01395689467106648</v>
+      </c>
+      <c r="H33">
+        <v>0.05647205427194249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05209363948029877</v>
+        <v>0.05822182129075235</v>
       </c>
       <c r="C34">
-        <v>-0.03411292530147086</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01794319976945974</v>
+      </c>
+      <c r="D34">
+        <v>-0.06100398682345429</v>
+      </c>
+      <c r="E34">
+        <v>0.002287887889282677</v>
+      </c>
+      <c r="F34">
+        <v>-0.02303988685290421</v>
+      </c>
+      <c r="G34">
+        <v>-0.002054402643536611</v>
+      </c>
+      <c r="H34">
+        <v>0.04472807671342507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0361639966562859</v>
+        <v>0.04040707659044324</v>
       </c>
       <c r="C35">
-        <v>-0.01160801325424073</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.003635774717581299</v>
+      </c>
+      <c r="D35">
+        <v>-0.01559654287051656</v>
+      </c>
+      <c r="E35">
+        <v>0.01926543268680774</v>
+      </c>
+      <c r="F35">
+        <v>0.003040182701372459</v>
+      </c>
+      <c r="G35">
+        <v>0.01428597021181326</v>
+      </c>
+      <c r="H35">
+        <v>0.03483927310149585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01794205325738986</v>
+        <v>0.02469555843078084</v>
       </c>
       <c r="C36">
-        <v>-0.01699093307151865</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.0128789470427152</v>
+      </c>
+      <c r="D36">
+        <v>-0.02018461969356634</v>
+      </c>
+      <c r="E36">
+        <v>0.03874767780408064</v>
+      </c>
+      <c r="F36">
+        <v>-0.02086540431062758</v>
+      </c>
+      <c r="G36">
+        <v>0.01504163129862511</v>
+      </c>
+      <c r="H36">
+        <v>0.05279514528909447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03818720016732725</v>
+        <v>0.04229055771654219</v>
       </c>
       <c r="C38">
-        <v>-0.008985844667446964</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.00191115077505434</v>
+      </c>
+      <c r="D38">
+        <v>-0.02137343396559785</v>
+      </c>
+      <c r="E38">
+        <v>0.06045206815800436</v>
+      </c>
+      <c r="F38">
+        <v>0.01023051690209141</v>
+      </c>
+      <c r="G38">
+        <v>-0.01654214598347946</v>
+      </c>
+      <c r="H38">
+        <v>0.03975892490898252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0862463898577181</v>
+        <v>0.09996199272801075</v>
       </c>
       <c r="C39">
-        <v>-0.08112490285324453</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05441868864060896</v>
+      </c>
+      <c r="D39">
+        <v>-0.07902057864365071</v>
+      </c>
+      <c r="E39">
+        <v>-0.01488839166301512</v>
+      </c>
+      <c r="F39">
+        <v>-0.01407147560555788</v>
+      </c>
+      <c r="G39">
+        <v>-0.02642167887232405</v>
+      </c>
+      <c r="H39">
+        <v>0.0431579167751942</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06778242843170892</v>
+        <v>0.07056712666585474</v>
       </c>
       <c r="C40">
-        <v>-0.05548202037267731</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03352617366298356</v>
+      </c>
+      <c r="D40">
+        <v>-0.008604537398146562</v>
+      </c>
+      <c r="E40">
+        <v>0.02337154478504403</v>
+      </c>
+      <c r="F40">
+        <v>0.05960482936733101</v>
+      </c>
+      <c r="G40">
+        <v>-0.07775991788456592</v>
+      </c>
+      <c r="H40">
+        <v>-0.1017293945127513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03859896962876587</v>
+        <v>0.04240424180169128</v>
       </c>
       <c r="C41">
-        <v>-0.01293486377369175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.004392540342282635</v>
+      </c>
+      <c r="D41">
+        <v>-0.04092232725859447</v>
+      </c>
+      <c r="E41">
+        <v>0.006239542527453746</v>
+      </c>
+      <c r="F41">
+        <v>0.006968163675712683</v>
+      </c>
+      <c r="G41">
+        <v>-0.01096481658751988</v>
+      </c>
+      <c r="H41">
+        <v>0.04551269421312706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0432620694769767</v>
+        <v>0.05194455084839428</v>
       </c>
       <c r="C43">
-        <v>-0.03140358672727325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01987664581633539</v>
+      </c>
+      <c r="D43">
+        <v>-0.02806180374949175</v>
+      </c>
+      <c r="E43">
+        <v>0.01616051692962022</v>
+      </c>
+      <c r="F43">
+        <v>-0.01302162910573426</v>
+      </c>
+      <c r="G43">
+        <v>0.006632719031218393</v>
+      </c>
+      <c r="H43">
+        <v>0.05140777373152842</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09124202950669215</v>
+        <v>0.0906678405554783</v>
       </c>
       <c r="C44">
-        <v>-0.09393600649066083</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06048813699684814</v>
+      </c>
+      <c r="D44">
+        <v>-0.06084623344058043</v>
+      </c>
+      <c r="E44">
+        <v>0.09933824163457208</v>
+      </c>
+      <c r="F44">
+        <v>-0.0577222524139228</v>
+      </c>
+      <c r="G44">
+        <v>-0.03013390596291167</v>
+      </c>
+      <c r="H44">
+        <v>-0.06363251187520218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0256057118934553</v>
+        <v>0.02843356913098532</v>
       </c>
       <c r="C46">
-        <v>-0.0176092846267125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01010025667089112</v>
+      </c>
+      <c r="D46">
+        <v>-0.03422118959469443</v>
+      </c>
+      <c r="E46">
+        <v>0.016696706227211</v>
+      </c>
+      <c r="F46">
+        <v>-0.01729461731585913</v>
+      </c>
+      <c r="G46">
+        <v>-0.002045027137992907</v>
+      </c>
+      <c r="H46">
+        <v>0.04259768034774894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02599828809886536</v>
+        <v>0.02843485713932317</v>
       </c>
       <c r="C47">
-        <v>-0.02040091907148905</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01309180836731001</v>
+      </c>
+      <c r="D47">
+        <v>-0.01352894766330056</v>
+      </c>
+      <c r="E47">
+        <v>0.0472983983960442</v>
+      </c>
+      <c r="F47">
+        <v>-0.01598286624127216</v>
+      </c>
+      <c r="G47">
+        <v>0.03656359918018109</v>
+      </c>
+      <c r="H47">
+        <v>0.03282344026843929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02782984007818664</v>
+        <v>0.03262638320906753</v>
       </c>
       <c r="C48">
-        <v>-0.01998531500958676</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01202011008705683</v>
+      </c>
+      <c r="D48">
+        <v>-0.03299756410723852</v>
+      </c>
+      <c r="E48">
+        <v>0.04026290540509532</v>
+      </c>
+      <c r="F48">
+        <v>-0.01009122633258651</v>
+      </c>
+      <c r="G48">
+        <v>-0.005837686966720977</v>
+      </c>
+      <c r="H48">
+        <v>0.05548820654038454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1510296466982017</v>
+        <v>0.1795585549904599</v>
       </c>
       <c r="C49">
-        <v>-0.08893048573032677</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05397390169367317</v>
+      </c>
+      <c r="D49">
+        <v>-0.02587929807813857</v>
+      </c>
+      <c r="E49">
+        <v>-0.1276239941794041</v>
+      </c>
+      <c r="F49">
+        <v>-0.03188637030998592</v>
+      </c>
+      <c r="G49">
+        <v>0.04270858994559164</v>
+      </c>
+      <c r="H49">
+        <v>-0.270468949944431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03386693267481358</v>
+        <v>0.04223419158498776</v>
       </c>
       <c r="C50">
-        <v>-0.0289267583166413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02211159307824953</v>
+      </c>
+      <c r="D50">
+        <v>-0.03516820107131442</v>
+      </c>
+      <c r="E50">
+        <v>0.04671278920793916</v>
+      </c>
+      <c r="F50">
+        <v>-0.02530414836798047</v>
+      </c>
+      <c r="G50">
+        <v>0.01812850219443837</v>
+      </c>
+      <c r="H50">
+        <v>0.07154454441086265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02415951697124723</v>
+        <v>0.02638619719588274</v>
       </c>
       <c r="C51">
-        <v>-0.01387280451663616</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.008699026171082461</v>
+      </c>
+      <c r="D51">
+        <v>-0.02324127785959019</v>
+      </c>
+      <c r="E51">
+        <v>0.01592985667912698</v>
+      </c>
+      <c r="F51">
+        <v>-0.01357914770952317</v>
+      </c>
+      <c r="G51">
+        <v>-0.004183166209422409</v>
+      </c>
+      <c r="H51">
+        <v>0.01449902038635469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1394329472699966</v>
+        <v>0.1580752172710173</v>
       </c>
       <c r="C53">
-        <v>-0.09392592553677991</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06301316675446786</v>
+      </c>
+      <c r="D53">
+        <v>-0.02415323012827358</v>
+      </c>
+      <c r="E53">
+        <v>-0.03831165720102064</v>
+      </c>
+      <c r="F53">
+        <v>-0.02061006258949068</v>
+      </c>
+      <c r="G53">
+        <v>0.005261775505688983</v>
+      </c>
+      <c r="H53">
+        <v>0.1526908278455528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05142457523392351</v>
+        <v>0.05551379898904593</v>
       </c>
       <c r="C54">
-        <v>-0.02735216922143145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.0133131614585549</v>
+      </c>
+      <c r="D54">
+        <v>-0.03267012740534699</v>
+      </c>
+      <c r="E54">
+        <v>0.04643046489110234</v>
+      </c>
+      <c r="F54">
+        <v>-0.01518852581952366</v>
+      </c>
+      <c r="G54">
+        <v>-0.005971426956565307</v>
+      </c>
+      <c r="H54">
+        <v>0.06034889943814388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09220886056650963</v>
+        <v>0.09900796327073245</v>
       </c>
       <c r="C55">
-        <v>-0.06119282760775949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03874223535969696</v>
+      </c>
+      <c r="D55">
+        <v>-0.03064850100972746</v>
+      </c>
+      <c r="E55">
+        <v>0.008051948866022752</v>
+      </c>
+      <c r="F55">
+        <v>-0.02132917823184624</v>
+      </c>
+      <c r="G55">
+        <v>0.0004579957245644909</v>
+      </c>
+      <c r="H55">
+        <v>0.1378995073732935</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1387332781825855</v>
+        <v>0.1571169529742068</v>
       </c>
       <c r="C56">
-        <v>-0.1058930546969664</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07219436137466662</v>
+      </c>
+      <c r="D56">
+        <v>-0.016621492264217</v>
+      </c>
+      <c r="E56">
+        <v>-0.04020179223299648</v>
+      </c>
+      <c r="F56">
+        <v>-0.04378823678104551</v>
+      </c>
+      <c r="G56">
+        <v>0.01629524814658443</v>
+      </c>
+      <c r="H56">
+        <v>0.1514815506328297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1166262670205302</v>
+        <v>0.1001397744418133</v>
       </c>
       <c r="C58">
-        <v>-0.02455241492243584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.01633137316929023</v>
+      </c>
+      <c r="D58">
+        <v>-0.06240034037863348</v>
+      </c>
+      <c r="E58">
+        <v>0.1796051374037266</v>
+      </c>
+      <c r="F58">
+        <v>-0.0106302280420266</v>
+      </c>
+      <c r="G58">
+        <v>0.03890209498629978</v>
+      </c>
+      <c r="H58">
+        <v>-0.1974789408124565</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1175070062207706</v>
+        <v>0.1518256140525474</v>
       </c>
       <c r="C59">
-        <v>-0.08531158084639946</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.07938111430258463</v>
+      </c>
+      <c r="D59">
+        <v>0.3552921205480424</v>
+      </c>
+      <c r="E59">
+        <v>0.04533228805151503</v>
+      </c>
+      <c r="F59">
+        <v>0.007728978844343215</v>
+      </c>
+      <c r="G59">
+        <v>0.04410067786359828</v>
+      </c>
+      <c r="H59">
+        <v>0.002084421763056049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1895217407708732</v>
+        <v>0.220547964949029</v>
       </c>
       <c r="C60">
-        <v>-0.1149726698434652</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07396798945410783</v>
+      </c>
+      <c r="D60">
+        <v>-0.0255618663742595</v>
+      </c>
+      <c r="E60">
+        <v>-0.06902129671253376</v>
+      </c>
+      <c r="F60">
+        <v>-0.0491532292765899</v>
+      </c>
+      <c r="G60">
+        <v>-0.0267976474426535</v>
+      </c>
+      <c r="H60">
+        <v>-0.1641991415480424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07429437415406125</v>
+        <v>0.08471896350696599</v>
       </c>
       <c r="C61">
-        <v>-0.06185812490838455</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04124277744281704</v>
+      </c>
+      <c r="D61">
+        <v>-0.05783816341787697</v>
+      </c>
+      <c r="E61">
+        <v>-0.0166474453080117</v>
+      </c>
+      <c r="F61">
+        <v>-0.005653435066535181</v>
+      </c>
+      <c r="G61">
+        <v>0.01009079696598371</v>
+      </c>
+      <c r="H61">
+        <v>0.07001467511641553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1199804068119937</v>
+        <v>0.1384067128929195</v>
       </c>
       <c r="C62">
-        <v>-0.07985712606916381</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05344779948559984</v>
+      </c>
+      <c r="D62">
+        <v>-0.02575642359555232</v>
+      </c>
+      <c r="E62">
+        <v>-0.05455982480876526</v>
+      </c>
+      <c r="F62">
+        <v>-0.01673477908897367</v>
+      </c>
+      <c r="G62">
+        <v>-0.02753169927482608</v>
+      </c>
+      <c r="H62">
+        <v>0.1522058188661928</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05032316447546771</v>
+        <v>0.05055059553351955</v>
       </c>
       <c r="C63">
-        <v>-0.03253550875462893</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01735982683257766</v>
+      </c>
+      <c r="D63">
+        <v>-0.02996501517303987</v>
+      </c>
+      <c r="E63">
+        <v>0.04731296028801659</v>
+      </c>
+      <c r="F63">
+        <v>-0.012184960649419</v>
+      </c>
+      <c r="G63">
+        <v>-0.03265716081082908</v>
+      </c>
+      <c r="H63">
+        <v>0.08525777138338751</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.105528222580003</v>
+        <v>0.1113012511910185</v>
       </c>
       <c r="C64">
-        <v>-0.04000595033520944</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01245799671881504</v>
+      </c>
+      <c r="D64">
+        <v>-0.04886924106754718</v>
+      </c>
+      <c r="E64">
+        <v>0.02499959968523837</v>
+      </c>
+      <c r="F64">
+        <v>-0.05551448225367011</v>
+      </c>
+      <c r="G64">
+        <v>-0.02573559529793856</v>
+      </c>
+      <c r="H64">
+        <v>0.07492916006161537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1120892199102789</v>
+        <v>0.124672186425807</v>
       </c>
       <c r="C65">
-        <v>-0.06558673714192959</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04051357382244517</v>
+      </c>
+      <c r="D65">
+        <v>-0.0104288893961869</v>
+      </c>
+      <c r="E65">
+        <v>0.0006103516468554959</v>
+      </c>
+      <c r="F65">
+        <v>-0.06579993674002314</v>
+      </c>
+      <c r="G65">
+        <v>-0.03606996338155028</v>
+      </c>
+      <c r="H65">
+        <v>-0.09634353706132683</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1326375631871486</v>
+        <v>0.1503773730907178</v>
       </c>
       <c r="C66">
-        <v>-0.0933142718026128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05727060008960942</v>
+      </c>
+      <c r="D66">
+        <v>-0.1173045657546377</v>
+      </c>
+      <c r="E66">
+        <v>-0.05462224537372509</v>
+      </c>
+      <c r="F66">
+        <v>-0.02839487400284436</v>
+      </c>
+      <c r="G66">
+        <v>-0.03088507366881037</v>
+      </c>
+      <c r="H66">
+        <v>0.1175555605553773</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06969090530534916</v>
+        <v>0.07689877879381733</v>
       </c>
       <c r="C67">
-        <v>-0.0207027399340002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.006746671461324561</v>
+      </c>
+      <c r="D67">
+        <v>-0.03201163400977412</v>
+      </c>
+      <c r="E67">
+        <v>0.02777329636708311</v>
+      </c>
+      <c r="F67">
+        <v>-0.01255774941602145</v>
+      </c>
+      <c r="G67">
+        <v>0.003865498835894405</v>
+      </c>
+      <c r="H67">
+        <v>0.03452868943675663</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06193594997827307</v>
+        <v>0.07334930764291121</v>
       </c>
       <c r="C68">
-        <v>-0.04864999765592548</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04574271067547608</v>
+      </c>
+      <c r="D68">
+        <v>0.2638313884719396</v>
+      </c>
+      <c r="E68">
+        <v>0.04902466548424603</v>
+      </c>
+      <c r="F68">
+        <v>-0.009695866608602881</v>
+      </c>
+      <c r="G68">
+        <v>0.01114711289073438</v>
+      </c>
+      <c r="H68">
+        <v>0.02135465806078261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0471136864748308</v>
+        <v>0.04681983953643959</v>
       </c>
       <c r="C69">
-        <v>-0.02376739229839616</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.008603358800177478</v>
+      </c>
+      <c r="D69">
+        <v>-0.02551692084535953</v>
+      </c>
+      <c r="E69">
+        <v>0.02116776204582512</v>
+      </c>
+      <c r="F69">
+        <v>0.002835906472663253</v>
+      </c>
+      <c r="G69">
+        <v>0.008160835715229294</v>
+      </c>
+      <c r="H69">
+        <v>0.06146484548310833</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004886719009263823</v>
+        <v>0.01851830706622028</v>
       </c>
       <c r="C70">
-        <v>0.003124066985413189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0008145440172338441</v>
+      </c>
+      <c r="D70">
+        <v>0.003343385860889006</v>
+      </c>
+      <c r="E70">
+        <v>-0.02499920635841665</v>
+      </c>
+      <c r="F70">
+        <v>-0.01485710740597856</v>
+      </c>
+      <c r="G70">
+        <v>0.01857812567938323</v>
+      </c>
+      <c r="H70">
+        <v>-0.04885451316827978</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06590772281166743</v>
+        <v>0.07780293519113547</v>
       </c>
       <c r="C71">
-        <v>-0.04555188205260163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04308017110523468</v>
+      </c>
+      <c r="D71">
+        <v>0.2950525880021103</v>
+      </c>
+      <c r="E71">
+        <v>0.04605223342015288</v>
+      </c>
+      <c r="F71">
+        <v>-0.03784800178660067</v>
+      </c>
+      <c r="G71">
+        <v>0.00821362032891158</v>
+      </c>
+      <c r="H71">
+        <v>0.008024226029939636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1333624543474115</v>
+        <v>0.154284603961188</v>
       </c>
       <c r="C72">
-        <v>-0.07095140588720722</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04249731565616472</v>
+      </c>
+      <c r="D72">
+        <v>-0.005216854863088527</v>
+      </c>
+      <c r="E72">
+        <v>-0.09141997209311763</v>
+      </c>
+      <c r="F72">
+        <v>0.160557486287062</v>
+      </c>
+      <c r="G72">
+        <v>-0.1133747616181314</v>
+      </c>
+      <c r="H72">
+        <v>0.01755088341625118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2501787533208913</v>
+        <v>0.2807901970949056</v>
       </c>
       <c r="C73">
-        <v>-0.1387700103270242</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07497623932791868</v>
+      </c>
+      <c r="D73">
+        <v>-0.09049255042718121</v>
+      </c>
+      <c r="E73">
+        <v>-0.1813478390589423</v>
+      </c>
+      <c r="F73">
+        <v>-0.0897519301932161</v>
+      </c>
+      <c r="G73">
+        <v>0.1807031364469895</v>
+      </c>
+      <c r="H73">
+        <v>-0.594658189419064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07256145354650038</v>
+        <v>0.08788257933210583</v>
       </c>
       <c r="C74">
-        <v>-0.08407038132806952</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06390339529660759</v>
+      </c>
+      <c r="D74">
+        <v>-0.02978770267865019</v>
+      </c>
+      <c r="E74">
+        <v>-0.006526212412371435</v>
+      </c>
+      <c r="F74">
+        <v>0.01049334480418342</v>
+      </c>
+      <c r="G74">
+        <v>0.03633915506989986</v>
+      </c>
+      <c r="H74">
+        <v>0.1271112333912283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09314791166906559</v>
+        <v>0.1014893909516676</v>
       </c>
       <c r="C75">
-        <v>-0.06123944226847876</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03290548319636176</v>
+      </c>
+      <c r="D75">
+        <v>-0.01108739130514963</v>
+      </c>
+      <c r="E75">
+        <v>-0.003435095448940587</v>
+      </c>
+      <c r="F75">
+        <v>-0.04739056594975152</v>
+      </c>
+      <c r="G75">
+        <v>0.0200794486338799</v>
+      </c>
+      <c r="H75">
+        <v>0.1175336594745339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1168747437396132</v>
+        <v>0.1314357121473352</v>
       </c>
       <c r="C76">
-        <v>-0.09647694620409418</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0658868239175199</v>
+      </c>
+      <c r="D76">
+        <v>-0.0507662529021074</v>
+      </c>
+      <c r="E76">
+        <v>0.01167486286764135</v>
+      </c>
+      <c r="F76">
+        <v>-0.06481576663278123</v>
+      </c>
+      <c r="G76">
+        <v>0.008294597723282317</v>
+      </c>
+      <c r="H76">
+        <v>0.1572112643750561</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1167685354020701</v>
+        <v>0.113306377629877</v>
       </c>
       <c r="C77">
-        <v>-0.05149879508541643</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.01591996824377974</v>
+      </c>
+      <c r="D77">
+        <v>-0.01380757278205997</v>
+      </c>
+      <c r="E77">
+        <v>-0.006044231973712182</v>
+      </c>
+      <c r="F77">
+        <v>-0.2175033283554251</v>
+      </c>
+      <c r="G77">
+        <v>-0.886324065344666</v>
+      </c>
+      <c r="H77">
+        <v>-0.1184143261008702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08886079716413116</v>
+        <v>0.1121944866399407</v>
       </c>
       <c r="C78">
-        <v>-0.04656796028581622</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03006127137867408</v>
+      </c>
+      <c r="D78">
+        <v>-0.08551779368692172</v>
+      </c>
+      <c r="E78">
+        <v>0.06326787171639103</v>
+      </c>
+      <c r="F78">
+        <v>-0.01404244634653079</v>
+      </c>
+      <c r="G78">
+        <v>-0.03876992142871167</v>
+      </c>
+      <c r="H78">
+        <v>-0.110564327330822</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1366647325894483</v>
+        <v>0.1498177758170783</v>
       </c>
       <c r="C79">
-        <v>-0.0979288670155644</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.05893057787380442</v>
+      </c>
+      <c r="D79">
+        <v>-0.03030453038818243</v>
+      </c>
+      <c r="E79">
+        <v>-0.02674990478189758</v>
+      </c>
+      <c r="F79">
+        <v>-0.02488066724825403</v>
+      </c>
+      <c r="G79">
+        <v>0.02090535071948071</v>
+      </c>
+      <c r="H79">
+        <v>0.1508237611789235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03961895863207764</v>
+        <v>0.03914865992123812</v>
       </c>
       <c r="C80">
-        <v>-0.01829280326288814</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007185017958397385</v>
+      </c>
+      <c r="D80">
+        <v>-0.03029308990777246</v>
+      </c>
+      <c r="E80">
+        <v>-0.005675206917519665</v>
+      </c>
+      <c r="F80">
+        <v>0.02151513636740703</v>
+      </c>
+      <c r="G80">
+        <v>0.03511165925952691</v>
+      </c>
+      <c r="H80">
+        <v>0.04182432410672621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1101086604013795</v>
+        <v>0.1173574943864631</v>
       </c>
       <c r="C81">
-        <v>-0.07434313719738779</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.04271879134449667</v>
+      </c>
+      <c r="D81">
+        <v>-0.0297492195239738</v>
+      </c>
+      <c r="E81">
+        <v>-0.005744687332683325</v>
+      </c>
+      <c r="F81">
+        <v>-0.02932846517602089</v>
+      </c>
+      <c r="G81">
+        <v>0.05999080091463278</v>
+      </c>
+      <c r="H81">
+        <v>0.1782614507628208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1175556369416265</v>
+        <v>0.1265019306781762</v>
       </c>
       <c r="C82">
-        <v>-0.08834040849547181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05630679093269395</v>
+      </c>
+      <c r="D82">
+        <v>-0.03470527450903283</v>
+      </c>
+      <c r="E82">
+        <v>-0.02071690004441344</v>
+      </c>
+      <c r="F82">
+        <v>-0.05782823635650546</v>
+      </c>
+      <c r="G82">
+        <v>0.05378268351363056</v>
+      </c>
+      <c r="H82">
+        <v>0.1761812794771335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07198980624116294</v>
+        <v>0.07764543761179492</v>
       </c>
       <c r="C83">
-        <v>-0.01767583875001298</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.002366506901484916</v>
+      </c>
+      <c r="D83">
+        <v>-0.05094373284994558</v>
+      </c>
+      <c r="E83">
+        <v>0.01378781826806472</v>
+      </c>
+      <c r="F83">
+        <v>-0.02109979790026395</v>
+      </c>
+      <c r="G83">
+        <v>0.08785747993415093</v>
+      </c>
+      <c r="H83">
+        <v>-0.009110814456921235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0262172673545036</v>
+        <v>0.03663558694628571</v>
       </c>
       <c r="C84">
-        <v>-0.0249012936560791</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02104038448519351</v>
+      </c>
+      <c r="D84">
+        <v>-0.03476130056603425</v>
+      </c>
+      <c r="E84">
+        <v>0.02241078236799875</v>
+      </c>
+      <c r="F84">
+        <v>0.04959146267506996</v>
+      </c>
+      <c r="G84">
+        <v>0.05849574422463778</v>
+      </c>
+      <c r="H84">
+        <v>0.01330430822109733</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1140709369721179</v>
+        <v>0.1169754405703798</v>
       </c>
       <c r="C85">
-        <v>-0.07052023554523795</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03643371192604152</v>
+      </c>
+      <c r="D85">
+        <v>-0.02940661808484215</v>
+      </c>
+      <c r="E85">
+        <v>0.002402431340198827</v>
+      </c>
+      <c r="F85">
+        <v>-0.06810499593696374</v>
+      </c>
+      <c r="G85">
+        <v>0.02599064137433757</v>
+      </c>
+      <c r="H85">
+        <v>0.1306833791162173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04806176204782264</v>
+        <v>0.04998314325365113</v>
       </c>
       <c r="C86">
-        <v>-0.02620710353029895</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01261208045214557</v>
+      </c>
+      <c r="D86">
+        <v>-0.02102817465292969</v>
+      </c>
+      <c r="E86">
+        <v>0.0571596162208633</v>
+      </c>
+      <c r="F86">
+        <v>-0.02643596620691815</v>
+      </c>
+      <c r="G86">
+        <v>0.00720317077371845</v>
+      </c>
+      <c r="H86">
+        <v>0.01118240712363961</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1170348277585766</v>
+        <v>0.1203354886451776</v>
       </c>
       <c r="C87">
-        <v>-0.08030599610044885</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04126976167097929</v>
+      </c>
+      <c r="D87">
+        <v>-0.07257824975737912</v>
+      </c>
+      <c r="E87">
+        <v>0.01400512376113518</v>
+      </c>
+      <c r="F87">
+        <v>-0.01708057720262024</v>
+      </c>
+      <c r="G87">
+        <v>-0.1023746330731567</v>
+      </c>
+      <c r="H87">
+        <v>-0.0003986047336536778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05195856007045302</v>
+        <v>0.05762359130587851</v>
       </c>
       <c r="C88">
-        <v>-0.03663080829637231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02249892730827288</v>
+      </c>
+      <c r="D88">
+        <v>-0.02643870723468162</v>
+      </c>
+      <c r="E88">
+        <v>0.01692450515269231</v>
+      </c>
+      <c r="F88">
+        <v>-0.009745040519831438</v>
+      </c>
+      <c r="G88">
+        <v>-0.009649488199640521</v>
+      </c>
+      <c r="H88">
+        <v>0.0683991152501406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08646690311044844</v>
+        <v>0.1111984194060109</v>
       </c>
       <c r="C89">
-        <v>-0.06980354047504284</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.06816314872290383</v>
+      </c>
+      <c r="D89">
+        <v>0.3277761104339043</v>
+      </c>
+      <c r="E89">
+        <v>0.07586600898313324</v>
+      </c>
+      <c r="F89">
+        <v>-0.06502503377181387</v>
+      </c>
+      <c r="G89">
+        <v>0.02309856944837308</v>
+      </c>
+      <c r="H89">
+        <v>-0.005335686570957372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0761303258911499</v>
+        <v>0.09339524488188165</v>
       </c>
       <c r="C90">
-        <v>-0.06028426887236508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.05710938520090746</v>
+      </c>
+      <c r="D90">
+        <v>0.3043797696891913</v>
+      </c>
+      <c r="E90">
+        <v>0.06419032521354399</v>
+      </c>
+      <c r="F90">
+        <v>0.008564974037977353</v>
+      </c>
+      <c r="G90">
+        <v>0.004019947291933384</v>
+      </c>
+      <c r="H90">
+        <v>0.02163375699055704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0776614370522231</v>
+        <v>0.08624297709229017</v>
       </c>
       <c r="C91">
-        <v>-0.0644595140927508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04167388925923538</v>
+      </c>
+      <c r="D91">
+        <v>-0.02466862799658915</v>
+      </c>
+      <c r="E91">
+        <v>0.01317937604961869</v>
+      </c>
+      <c r="F91">
+        <v>-0.01038877641814921</v>
+      </c>
+      <c r="G91">
+        <v>0.04514953878770699</v>
+      </c>
+      <c r="H91">
+        <v>0.08743233634075759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08689134467995199</v>
+        <v>0.1040918269146118</v>
       </c>
       <c r="C92">
-        <v>-0.07236779057009633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06546604891426867</v>
+      </c>
+      <c r="D92">
+        <v>0.3418426371956047</v>
+      </c>
+      <c r="E92">
+        <v>0.05259022443790354</v>
+      </c>
+      <c r="F92">
+        <v>-0.03040456776737102</v>
+      </c>
+      <c r="G92">
+        <v>0.002900496943150168</v>
+      </c>
+      <c r="H92">
+        <v>0.02243284449260396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.07025307624804972</v>
+        <v>0.0896243810434512</v>
       </c>
       <c r="C93">
-        <v>-0.0604658894127924</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06046717258926577</v>
+      </c>
+      <c r="D93">
+        <v>0.3022072193197615</v>
+      </c>
+      <c r="E93">
+        <v>0.03559050111185477</v>
+      </c>
+      <c r="F93">
+        <v>-0.03991340489259979</v>
+      </c>
+      <c r="G93">
+        <v>0.0003638584005609791</v>
+      </c>
+      <c r="H93">
+        <v>-0.01105767550192337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1235679382996522</v>
+        <v>0.1263436593838266</v>
       </c>
       <c r="C94">
-        <v>-0.0744164559623979</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03517173527867632</v>
+      </c>
+      <c r="D94">
+        <v>-0.05331268433855141</v>
+      </c>
+      <c r="E94">
+        <v>-0.02353646327762429</v>
+      </c>
+      <c r="F94">
+        <v>-0.03010027002023193</v>
+      </c>
+      <c r="G94">
+        <v>0.04537997878947463</v>
+      </c>
+      <c r="H94">
+        <v>0.08485371723017131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1116983950072158</v>
+        <v>0.1189875236029152</v>
       </c>
       <c r="C95">
-        <v>-0.05432573341048424</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02173437766023521</v>
+      </c>
+      <c r="D95">
+        <v>-0.05826928636234902</v>
+      </c>
+      <c r="E95">
+        <v>-0.007906528246033624</v>
+      </c>
+      <c r="F95">
+        <v>-0.02526079310800621</v>
+      </c>
+      <c r="G95">
+        <v>0.01378422197696413</v>
+      </c>
+      <c r="H95">
+        <v>0.02761590177152618</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2024001558667732</v>
+        <v>0.2210344971238092</v>
       </c>
       <c r="C97">
-        <v>-0.07409546475904816</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02969641400727802</v>
+      </c>
+      <c r="D97">
+        <v>0.03488615133405464</v>
+      </c>
+      <c r="E97">
+        <v>-0.1641128934739404</v>
+      </c>
+      <c r="F97">
+        <v>0.8967489161548093</v>
+      </c>
+      <c r="G97">
+        <v>-0.1614480817394643</v>
+      </c>
+      <c r="H97">
+        <v>0.01179241545921613</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2371139539047207</v>
+        <v>0.2670530581453481</v>
       </c>
       <c r="C98">
-        <v>-0.1136941568415066</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.05500708987109744</v>
+      </c>
+      <c r="D98">
+        <v>-0.06329732990955325</v>
+      </c>
+      <c r="E98">
+        <v>-0.1558485054650486</v>
+      </c>
+      <c r="F98">
+        <v>-0.04025715938431701</v>
+      </c>
+      <c r="G98">
+        <v>0.2666104983407127</v>
+      </c>
+      <c r="H98">
+        <v>-0.1331395222891749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5377774931790612</v>
+        <v>0.3328676737934025</v>
       </c>
       <c r="C99">
-        <v>0.8330841912758153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9314978610993352</v>
+      </c>
+      <c r="D99">
+        <v>0.06617951839762595</v>
+      </c>
+      <c r="E99">
+        <v>0.04056249143355206</v>
+      </c>
+      <c r="F99">
+        <v>-0.03933423286462074</v>
+      </c>
+      <c r="G99">
+        <v>0.01440815224787877</v>
+      </c>
+      <c r="H99">
+        <v>0.04339967805918048</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03740211940798276</v>
+        <v>0.04470351750744479</v>
       </c>
       <c r="C101">
-        <v>-0.02940765659390929</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02171113169294</v>
+      </c>
+      <c r="D101">
+        <v>-0.01387150843386311</v>
+      </c>
+      <c r="E101">
+        <v>0.0384230360617652</v>
+      </c>
+      <c r="F101">
+        <v>-0.01581810489295399</v>
+      </c>
+      <c r="G101">
+        <v>0.01488407983747401</v>
+      </c>
+      <c r="H101">
+        <v>0.08846633089155211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
